--- a/Type of education institution attending by sex(a), 2021 Census.xlsx
+++ b/Type of education institution attending by sex(a), 2021 Census.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D546D-A232-E94D-A965-53E357708E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190EF703-749B-0948-BBE7-71D8B8E4E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Males</t>
-  </si>
-  <si>
-    <t>Females</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Preschool</t>
   </si>
@@ -429,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,85 +432,80 @@
     <col min="2" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>252530</v>
+      </c>
+      <c r="C2" s="2">
+        <v>231654</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>252530</v>
+        <v>1064524</v>
       </c>
       <c r="C3" s="2">
-        <v>231654</v>
+        <v>1010697</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1064524</v>
+        <v>827178</v>
       </c>
       <c r="C4" s="2">
-        <v>1010697</v>
+        <v>802444</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>827178</v>
+        <v>275110</v>
       </c>
       <c r="C5" s="2">
-        <v>802444</v>
+        <v>326781</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>275110</v>
+        <v>495019</v>
       </c>
       <c r="C6" s="2">
-        <v>326781</v>
+        <v>690438</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>495019</v>
+        <v>106207</v>
       </c>
       <c r="C7" s="2">
-        <v>690438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>106207</v>
-      </c>
-      <c r="C8" s="2">
         <v>136615</v>
       </c>
     </row>
